--- a/public/data/sites.xlsx
+++ b/public/data/sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/523e14d3f8ae8114/Jugrafiya_dev/Tezintel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2D6618E-BF80-46EA-8356-6F4BC012E9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{474F39AD-6272-48BB-9EE6-B68460E39313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4952,7 +4952,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F69" sqref="F69"/>
+      <selection pane="bottomRight" activeCell="H69" sqref="H69"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -10991,8 +10991,12 @@
       <c r="E69" s="3">
         <v>80000</v>
       </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
+      <c r="F69" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G69" s="3">
+        <v>170000</v>
+      </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
